--- a/biology/Médecine/Hyperplasie_de_l'endomètre/Hyperplasie_de_l'endomètre.xlsx
+++ b/biology/Médecine/Hyperplasie_de_l'endomètre/Hyperplasie_de_l'endomètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyperplasie_de_l%27endom%C3%A8tre</t>
+          <t>Hyperplasie_de_l'endomètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyperplasie endométriale est une prolifération bénigne de l'endomètre dans l'utérus. L'hyperplasie endométriale est classée en fonction de sa cytologie et du tissu glandulaire. Elle peut être simple, complexe et atypique, avec un risque croissant d'évolution vers un cancer de l'endomètre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyperplasie_de_l%27endom%C3%A8tre</t>
+          <t>Hyperplasie_de_l'endomètre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyperplasie endométriale simple (hyperplasie simple de l'endomètre)
 Hyperplasie endométriale complexe
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyperplasie_de_l%27endom%C3%A8tre</t>
+          <t>Hyperplasie_de_l'endomètre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La cause de l'hyperplasie endométriale est la production excessive  d'oestrogènes. On trouve une relation entre cette hyperoestrogènie et l'insuffisance lutéale, notamment durant la préménopause.
 </t>
